--- a/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
+++ b/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9AA9E-0EA4-4B1E-B988-967877791800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5595F-67E2-429B-B59A-3154344D33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
-    <t>App ID</t>
-  </si>
-  <si>
     <t>MV</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Tax Amount</t>
-  </si>
-  <si>
     <t>UDF1</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>udf9 data</t>
   </si>
   <si>
-    <t>Populate only req fields</t>
-  </si>
-  <si>
     <t>UDF 9 req keep it as blank - verify error</t>
   </si>
   <si>
@@ -111,6 +102,9 @@
     <t>No Modify Amount</t>
   </si>
   <si>
+    <t>PayNow NoCF</t>
+  </si>
+  <si>
     <t>PayNow SCF</t>
   </si>
   <si>
@@ -147,7 +141,13 @@
     <t>udf data 9</t>
   </si>
   <si>
-    <t>PayNow NoCF (Populate All Fields)</t>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>TaxAmount</t>
+  </si>
+  <si>
+    <t>Populate only req fields NoCF</t>
   </si>
 </sst>
 </file>
@@ -468,12 +468,12 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
@@ -482,57 +482,57 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -550,39 +550,39 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -596,43 +596,40 @@
       <c r="E3">
         <v>10.5</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -650,39 +647,39 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
         <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -700,39 +697,39 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
         <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -750,39 +747,39 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
         <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -800,39 +797,39 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
         <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -850,36 +847,36 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
         <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -897,33 +894,33 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
         <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -937,25 +934,22 @@
       <c r="E10">
         <v>10.5</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
       <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
         <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -973,21 +967,21 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -1005,39 +999,39 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>34</v>
       </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
         <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -1055,34 +1049,34 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
         <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
+++ b/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5595F-67E2-429B-B59A-3154344D33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38053C04-F0C2-4C33-9795-C992213D50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>MV</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>UDF 5 required (dropdown) - blank (Verify error)</t>
-  </si>
-  <si>
-    <t>UDF 3, 8 required (textbox) - blank (Verify error)</t>
   </si>
   <si>
     <t>udf3 data</t>
@@ -465,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,10 +479,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -497,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -532,7 +526,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -550,13 +544,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -565,24 +559,24 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -597,13 +591,13 @@
         <v>10.5</v>
       </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -612,24 +606,24 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -647,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -662,24 +656,24 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -697,13 +691,13 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -712,24 +706,24 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -747,13 +741,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -762,24 +756,24 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
         <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -797,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -812,24 +806,24 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
         <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -843,40 +837,22 @@
       <c r="E8">
         <v>10.5</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -893,11 +869,8 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
+      <c r="I9" t="s">
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -905,25 +878,16 @@
       <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
+      <c r="N9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>950</v>
@@ -932,19 +896,40 @@
         <v>1.5</v>
       </c>
       <c r="E10">
-        <v>10.5</v>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -952,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>950</v>
@@ -961,13 +946,19 @@
         <v>1.5</v>
       </c>
       <c r="E11">
-        <v>10.5</v>
+        <v>201</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -975,108 +966,20 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
       <c r="N11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>950</v>
-      </c>
-      <c r="D12">
-        <v>1.5</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
         <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>950</v>
-      </c>
-      <c r="D13">
-        <v>1.5</v>
-      </c>
-      <c r="E13">
-        <v>201</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
+++ b/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38053C04-F0C2-4C33-9795-C992213D50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41AE090-715A-435F-B754-91749376B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
   <si>
     <t>MV</t>
   </si>
@@ -142,6 +153,24 @@
   </si>
   <si>
     <t>Populate only req fields NoCF</t>
+  </si>
+  <si>
+    <t>DualCFCeiling</t>
+  </si>
+  <si>
+    <t>DualCFFlat</t>
+  </si>
+  <si>
+    <t>DualCFPercentage</t>
+  </si>
+  <si>
+    <t>SingleCFCeiling</t>
+  </si>
+  <si>
+    <t>SingleCFFlat</t>
+  </si>
+  <si>
+    <t>SingleCFPercentage</t>
   </si>
 </sst>
 </file>
@@ -459,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,6 +1011,306 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>952</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>952</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>952</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>951</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>951</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>951</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
+++ b/KatalonData/BWPBootstrapData/EmulatorNormalizedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\BWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41AE090-715A-435F-B754-91749376B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3D56F-DEE9-4B6C-BC99-A972F32969A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
   <si>
     <t>MV</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>SingleCFPercentage</t>
+  </si>
+  <si>
+    <t>MissingReqFields</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,6 +1314,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>950</v>
+      </c>
+      <c r="D18">
+        <v>1.5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
